--- a/biology/Botanique/Myrte_tomenteux/Myrte_tomenteux.xlsx
+++ b/biology/Botanique/Myrte_tomenteux/Myrte_tomenteux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodomyrtus tomentosa
-Rhodomyrtus tomentosa également connu comme Rose Myrtle est une plante à fleurs de la famille des Myrtaceae, originaire du sud et sud-est de l'Asie ; on la trouve en Inde, dans le Sud de la Chine, à Hong Kong, Taiwan et aux Philippines, dans le Sud de la Malaisie et de Sulawesi. Cet arbuste pousse sur les côtes, dans les forêts naturelles, les zones riveraines, les zones et forêts humides, en marge des tourbières, du niveau de la mer jusqu'à 2400 m d'altitude[2].
+Rhodomyrtus tomentosa également connu comme Rose Myrtle est une plante à fleurs de la famille des Myrtaceae, originaire du sud et sud-est de l'Asie ; on la trouve en Inde, dans le Sud de la Chine, à Hong Kong, Taiwan et aux Philippines, dans le Sud de la Malaisie et de Sulawesi. Cet arbuste pousse sur les côtes, dans les forêts naturelles, les zones riveraines, les zones et forêts humides, en marge des tourbières, du niveau de la mer jusqu'à 2400 m d'altitude.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodomyrtus tomentosa est un arbuste à feuillage persistant qui pousse jusqu'à 4 M-12 pieds de haut. Les feuilles sont opposées, coriaces, de 5 à 7 cm de long et de 2 à 3,5 cm de large, trois nervures partant de la base, de forme ovale, obtus à pointu à la pointe, vert brillant dessus, densément gris ou rarement jaunâtre poilu en dessous, avec un large pétiole et une marge entière. Les fleurs sont solitaires ou en groupes de deux ou trois, de 2,5-3 cm de diamètre, avec cinq pétales qui sont teintés extérieure blanche avec intérieur rose violacé ou tout rose.
-Le fruit est comestible, 10-15 mm de long, violet, rond, trois ou quatre alvéoles, coiffé de persistants lobes en calice, doux, avec 40-45 graines dans une double rangée dans chaque cellule; la dispersion des graines est faite par les oiseaux et les mammifères frugivores. La production de semences et la germination ont un taux élevé[3],[4],[5].
-Synonymes Les synonymes sont Myrtus canescens Lour., Myrtus tomentosa Aiton, Rhodomyrtus parviflora Alston, et Rhodomyrtus tomentosa (Aiton) Wight. Les noms communs incluent groseille de colline du Ceylan (anglais), Downy myrte (anglais-Floride), Downy augmenté de myrte (anglais-Floride), Feijoa (français), Colline groseille (anglais), Colline goyave (anglais), Isenberg brousse (anglais-Hawaii ), Myrte-groseille (français), Kemunting (Malaisie), Gangrenzi (Chine) et Rose myrte (anglais-Florida) [1].
+Le fruit est comestible, 10-15 mm de long, violet, rond, trois ou quatre alvéoles, coiffé de persistants lobes en calice, doux, avec 40-45 graines dans une double rangée dans chaque cellule; la dispersion des graines est faite par les oiseaux et les mammifères frugivores. La production de semences et la germination ont un taux élevé.
+Synonymes Les synonymes sont Myrtus canescens Lour., Myrtus tomentosa Aiton, Rhodomyrtus parviflora Alston, et Rhodomyrtus tomentosa (Aiton) Wight. Les noms communs incluent groseille de colline du Ceylan (anglais), Downy myrte (anglais-Floride), Downy augmenté de myrte (anglais-Floride), Feijoa (français), Colline groseille (anglais), Colline goyave (anglais), Isenberg brousse (anglais-Hawaii ), Myrte-groseille (français), Kemunting (Malaisie), Gangrenzi (Chine) et Rose myrte (anglais-Florida) .
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Culture et utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a montré la promesse comme espèce ignifuge pour une utilisation de zones coupe-feu dans l'Himalaya[6]. C'est une plante ornementale populaire dans les jardins des domaines tropicaux et subtropicaux, cultivée pour ses fleurs abondants et comestibles[5]. Le fruit peut être utilisé dans les tartes et les confitures, ou dans des salades. Dans l'île de Phu Quoc au Vietnam, les fruits sont utilisés pour produire un vin appelé "Ruou sim" ; on en fait aussi des gelées ; ils sont conservés dans du sirop pour l'exportation.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a montré la promesse comme espèce ignifuge pour une utilisation de zones coupe-feu dans l'Himalaya. C'est une plante ornementale populaire dans les jardins des domaines tropicaux et subtropicaux, cultivée pour ses fleurs abondants et comestibles. Le fruit peut être utilisé dans les tartes et les confitures, ou dans des salades. Dans l'île de Phu Quoc au Vietnam, les fruits sont utilisés pour produire un vin appelé "Ruou sim" ; on en fait aussi des gelées ; ils sont conservés dans du sirop pour l'exportation.
 </t>
         </is>
       </c>
@@ -576,15 +592,17 @@
           <t>Gestion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est devenu une espèce envahissante dans certains pays, la diffusion pour former de gros monospécifiques fourrés qui déplacent indigènes de la flore et la faune. En particulier les zones touchées sont la Floride, Hawaï, et de Polynésie française.
-Il est capable d'envahir une gamme d'habitats, de flatwoods de pin pour la mangrove marais[5]. Il pousse dans une large gamme de sols types, y compris les sols côtiers salée, mais est sensible au brouillard salin lourd[7]. Il s'est adapté aux incendies, à savoir, est en mesure de produire des rejets prolifique après un incendie[8].
-Cette espèce envahit le sous-des indigènes pinelands [homonymie nécessaire] en Floride, formant des fourrés denses de monoculture qui déplacent la flore et la faune indigènes par la surpopulation et de la concurrence. A le potentiel de modifier les régimes de feux naturels des zones envahies[8].
-Une évaluation des risques de Rhodomyrtus tomentosa pour Hawaii et d'autres îles du Pacifique a été préparé par le Kaulunani Urban Forestry Program et US Forest Service. Le système de contrôle de plantes exotiques ( Alien plant screening system) est dérivé de Pheloung et al. (1999) avec des modifications mineures pour son utilisation dans les îles du Pacifique[9]. Le résultat est un score de 8 et une recommandation de "susceptibles de provoquer des dommages écologiques ou économiques considérables à Hawaï et sur d'autres îles du Pacifique, comme déterminé par un score élevé de WRA (Weed Risk Assessment), qui est basé sur des sources publiées décrivant la biologie des espèces et le comportement à Hawaii et/ou dans d'autres parties du monde".
-Dans la gestion intégrée, les semis peuvent être supprimés manuellement. Les arbustes matures peuvent être abattus à l'aide d'une scie à chaîne de coupe ou une brosse, et les souches traitées avec un herbicide commercial[10].
-Il a été introduit en Floride et à Hawaï en 1920 environ (Degener, 1963 à Langeland et Burks, 1999). En Floride, il est maintenant étendue à 17 districts (Centre de Ressources naturelles, 2003). Sur Hawaï, il se formait des fourrés impénétrables sur Kauai et Hilo par les années 1950 (Hosaka et Thistle, 1954 à Langeland et Burks, 1999). Il est actuellement sur la liste des mauvaises herbes nuisibles de l'État d'Hawaï [11]. La recherche a été menée à l'Université de la Floride 1998-2000 afin de décrire l'écologie et de déterminer les méthodes de contrôle efficaces pour cette espèce.
-Il est également un problème grave sur Raiatea, Polynésie française[11].[2]
+Il est capable d'envahir une gamme d'habitats, de flatwoods de pin pour la mangrove marais. Il pousse dans une large gamme de sols types, y compris les sols côtiers salée, mais est sensible au brouillard salin lourd. Il s'est adapté aux incendies, à savoir, est en mesure de produire des rejets prolifique après un incendie.
+Cette espèce envahit le sous-des indigènes pinelands [homonymie nécessaire] en Floride, formant des fourrés denses de monoculture qui déplacent la flore et la faune indigènes par la surpopulation et de la concurrence. A le potentiel de modifier les régimes de feux naturels des zones envahies.
+Une évaluation des risques de Rhodomyrtus tomentosa pour Hawaii et d'autres îles du Pacifique a été préparé par le Kaulunani Urban Forestry Program et US Forest Service. Le système de contrôle de plantes exotiques ( Alien plant screening system) est dérivé de Pheloung et al. (1999) avec des modifications mineures pour son utilisation dans les îles du Pacifique. Le résultat est un score de 8 et une recommandation de "susceptibles de provoquer des dommages écologiques ou économiques considérables à Hawaï et sur d'autres îles du Pacifique, comme déterminé par un score élevé de WRA (Weed Risk Assessment), qui est basé sur des sources publiées décrivant la biologie des espèces et le comportement à Hawaii et/ou dans d'autres parties du monde".
+Dans la gestion intégrée, les semis peuvent être supprimés manuellement. Les arbustes matures peuvent être abattus à l'aide d'une scie à chaîne de coupe ou une brosse, et les souches traitées avec un herbicide commercial.
+Il a été introduit en Floride et à Hawaï en 1920 environ (Degener, 1963 à Langeland et Burks, 1999). En Floride, il est maintenant étendue à 17 districts (Centre de Ressources naturelles, 2003). Sur Hawaï, il se formait des fourrés impénétrables sur Kauai et Hilo par les années 1950 (Hosaka et Thistle, 1954 à Langeland et Burks, 1999). Il est actuellement sur la liste des mauvaises herbes nuisibles de l'État d'Hawaï . La recherche a été menée à l'Université de la Floride 1998-2000 afin de décrire l'écologie et de déterminer les méthodes de contrôle efficaces pour cette espèce.
+Il est également un problème grave sur Raiatea, Polynésie française.
 </t>
         </is>
       </c>
